--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3947.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3947.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.19767665908018</v>
+        <v>0.7750759720802307</v>
       </c>
       <c r="B1">
-        <v>2.029313102748684</v>
+        <v>1.183954000473022</v>
       </c>
       <c r="C1">
-        <v>5.924655971568255</v>
+        <v>5.270091533660889</v>
       </c>
       <c r="D1">
-        <v>4.178926515390572</v>
+        <v>1.463203549385071</v>
       </c>
       <c r="E1">
-        <v>1.472892470538744</v>
+        <v>0.8542773723602295</v>
       </c>
     </row>
   </sheetData>
